--- a/Processes/HR_FixedTermAppointmentExpiry/Data/Case IDs.xlsx
+++ b/Processes/HR_FixedTermAppointmentExpiry/Data/Case IDs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\UQ\Processes\HR_FixedTermAppointmentExpiry\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C50C8F-75A7-4B77-A467-410F50C84801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2938F-C20A-4393-B94B-63572C79B7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E260B665-610A-4417-A551-0ABBF2BAC75C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>Case started</t>
   </si>
@@ -86,9 +86,6 @@
     <t>HR action - Odewumi Adegbija</t>
   </si>
   <si>
-    <t>19 minutes</t>
-  </si>
-  <si>
     <t>HR action - Abdalla Ali</t>
   </si>
   <si>
@@ -104,45 +101,24 @@
     <t>HR action - Yong Sun</t>
   </si>
   <si>
-    <t>3 hours</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>HR action - Deanne Gannaway</t>
   </si>
   <si>
-    <t>33 minutes</t>
-  </si>
-  <si>
     <t>HR action - Dominic Smith</t>
   </si>
   <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
     <t>HR action - Joanna Kho</t>
   </si>
   <si>
-    <t>28 minutes</t>
-  </si>
-  <si>
     <t>HR action - Devika Ganesamoorthy</t>
   </si>
   <si>
     <t>HR action - Ravi Chandra Raju Nagiri</t>
   </si>
   <si>
-    <t>16 minutes</t>
-  </si>
-  <si>
     <t>HR action - Volker Herzig</t>
   </si>
   <si>
-    <t>13 minutes</t>
-  </si>
-  <si>
     <t>HR action - Andres Rosario Hamann</t>
   </si>
   <si>
@@ -152,16 +128,40 @@
     <t>HR action - Richard Hockey</t>
   </si>
   <si>
-    <t>6 minutes</t>
-  </si>
-  <si>
     <t>HR action - Scott Diefenbach</t>
   </si>
   <si>
     <t>HR action - Rachel Stephenson</t>
   </si>
   <si>
-    <t>47 seconds</t>
+    <t>16 days</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>HR action - Sara Bell</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>HR action - Lee-Anne Pascoe</t>
+  </si>
+  <si>
+    <t>HR review - Amanda Kennedy</t>
+  </si>
+  <si>
+    <t>8 minutes</t>
+  </si>
+  <si>
+    <t>HR action - Roland Quast</t>
+  </si>
+  <si>
+    <t>HR action - Gina Sharp</t>
+  </si>
+  <si>
+    <t>32 seconds</t>
   </si>
 </sst>
 </file>
@@ -514,9 +514,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBFAB-ABCE-4207-A56D-B01703F8D6DA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,7 +582,7 @@
         <v>43857</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -606,7 +608,7 @@
         <v>43857</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -632,7 +634,7 @@
         <v>43857</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -658,7 +660,7 @@
         <v>43857</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -684,7 +686,7 @@
         <v>43857</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -710,7 +712,7 @@
         <v>43857</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -727,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>43850</v>
@@ -736,7 +738,7 @@
         <v>43857</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -753,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>43850</v>
@@ -762,7 +764,7 @@
         <v>43857</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -779,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>43850</v>
@@ -788,7 +790,7 @@
         <v>43857</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -805,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>43850</v>
@@ -814,7 +816,7 @@
         <v>43857</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -831,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>43850</v>
@@ -840,7 +842,7 @@
         <v>43857</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -857,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>43850</v>
@@ -866,7 +868,7 @@
         <v>43857</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -883,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>43850</v>
@@ -892,7 +894,7 @@
         <v>43857</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -909,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>43850</v>
@@ -918,7 +920,7 @@
         <v>43857</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -935,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>43850</v>
@@ -961,16 +963,16 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>43850</v>
+      </c>
+      <c r="F17">
+        <v>43857</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
-      </c>
-      <c r="E17">
-        <v>43850</v>
-      </c>
-      <c r="F17">
-        <v>43857</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -987,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>43850</v>
@@ -996,7 +998,7 @@
         <v>43857</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -1013,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>43850</v>
@@ -1022,7 +1024,7 @@
         <v>43857</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1039,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>43850</v>
@@ -1048,7 +1050,7 @@
         <v>43857</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -1065,45 +1067,205 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>43850</v>
+      </c>
+      <c r="F21">
+        <v>43857</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>43847</v>
+      </c>
+      <c r="B22">
+        <v>302330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>43866</v>
+      </c>
+      <c r="F22">
+        <v>43873</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>43847</v>
+      </c>
+      <c r="B23">
+        <v>302159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>43866</v>
+      </c>
+      <c r="F23">
+        <v>43873</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>43847</v>
+      </c>
+      <c r="B24">
+        <v>302204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>43866</v>
+      </c>
+      <c r="F24">
+        <v>43873</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>43847</v>
+      </c>
+      <c r="B25">
+        <v>302432</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>43866</v>
+      </c>
+      <c r="F25">
+        <v>43873</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>43847</v>
+      </c>
+      <c r="B26">
+        <v>302231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="E21">
-        <v>43850</v>
-      </c>
-      <c r="F21">
-        <v>43857</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E26">
+        <v>43866</v>
+      </c>
+      <c r="F26">
+        <v>43873</v>
+      </c>
+      <c r="G26" t="s">
         <v>42</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H26" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385928?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385928?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{CDD19590-D32A-4634-A8D2-07E24FD7DB92}"/>
-    <hyperlink ref="I3" r:id="rId2" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385962?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385962?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{17380D39-5806-47DB-B435-B5DBC0D13A37}"/>
-    <hyperlink ref="I4" r:id="rId3" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386021?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386021?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{2E110CFD-2E15-4A1B-8526-9973D2E2475D}"/>
-    <hyperlink ref="I5" r:id="rId4" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386033?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386033?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{FBBB849B-EC3A-4D1D-8071-D318356E66A0}"/>
-    <hyperlink ref="I6" r:id="rId5" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386070?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386070?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{9A389376-DDF0-4D6F-905F-321049D51491}"/>
-    <hyperlink ref="I7" r:id="rId6" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386079?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386079?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{B4CD56BE-9C1B-45A9-85ED-05E5E7080898}"/>
-    <hyperlink ref="I8" r:id="rId7" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386119?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386119?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{91D6D3B5-3215-48C5-AF47-59B17A944FEF}"/>
-    <hyperlink ref="I9" r:id="rId8" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386128?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386128?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{6D17B8B7-60EC-43DE-BBE4-373222303626}"/>
-    <hyperlink ref="I10" r:id="rId9" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386162?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386162?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{DEA81C59-928B-4E9F-86B5-48A86C4DBE2D}"/>
-    <hyperlink ref="I11" r:id="rId10" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386171?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386171?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{E05E7B8F-1578-48C4-9DBF-3FE69386FD3A}"/>
-    <hyperlink ref="I12" r:id="rId11" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386455?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386455?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{381A5C69-C07A-4603-A567-6012C4BB1EF6}"/>
-    <hyperlink ref="I13" r:id="rId12" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386489?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386489?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{5386E433-34EC-438C-8E24-ED56EF015D36}"/>
-    <hyperlink ref="I14" r:id="rId13" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386498?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386498?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{8A405FC0-4CBB-49FE-9094-99733FF2CCDB}"/>
-    <hyperlink ref="I15" r:id="rId14" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386532?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386532?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{6F42C40F-FB92-48BD-81D3-CFE9D337D594}"/>
-    <hyperlink ref="I16" r:id="rId15" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386541?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386541?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{A1B4FC23-F0E7-4CC4-8BA7-71C88089C759}"/>
-    <hyperlink ref="I17" r:id="rId16" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386550?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386550?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{B9324BA2-98FB-4F59-8CED-F693A52EB00A}"/>
-    <hyperlink ref="I18" r:id="rId17" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386584?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386584?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{9D21AA5D-EA84-4CD8-A0CA-61F76E1B34D9}"/>
-    <hyperlink ref="I19" r:id="rId18" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386593?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386593?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{9DF7243C-8751-4FA3-B25C-A4F748EC1B88}"/>
-    <hyperlink ref="I20" r:id="rId19" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386602?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386602?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{CABDF70A-E51E-4347-919B-A10E4465CC01}"/>
-    <hyperlink ref="I21" r:id="rId20" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386636?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386636?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{3372C568-FB0E-49B5-8898-B7FC68BD4CF1}"/>
+    <hyperlink ref="B2" r:id="rId1" location="details/302103/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302103/200335/user/case" xr:uid="{390FA9FA-E695-4F6F-96E5-D04BB8538FA8}"/>
+    <hyperlink ref="I2" r:id="rId2" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385928?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385928?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{712C2478-56A5-4535-AB5B-75EC96D9A117}"/>
+    <hyperlink ref="B3" r:id="rId3" location="details/280082/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/280082/200335/user/case" xr:uid="{F3B68A4D-67AD-498F-B4B9-DD5022D10A5D}"/>
+    <hyperlink ref="I3" r:id="rId4" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385962?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10385962?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{1F8F0F04-8053-4C08-BB69-BAA7464DD2DA}"/>
+    <hyperlink ref="B4" r:id="rId5" location="details/302111/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302111/200335/user/case" xr:uid="{0027650F-53D5-468D-B0AC-5EA4E2B6B7DC}"/>
+    <hyperlink ref="I4" r:id="rId6" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386021?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386021?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{97CC6F2B-2CD7-461B-9249-D8AD1735BEB8}"/>
+    <hyperlink ref="B5" r:id="rId7" location="details/302192/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302192/200335/user/case" xr:uid="{3C8CEE9F-BDB9-4753-B7A8-0F424EB641C6}"/>
+    <hyperlink ref="I5" r:id="rId8" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386033?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386033?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{A2AE2990-E208-4D3B-AA6E-062A62A97598}"/>
+    <hyperlink ref="B6" r:id="rId9" location="details/302223/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302223/200335/user/case" xr:uid="{FA5AE0A5-7599-4C4D-9E8F-75FC49A21D61}"/>
+    <hyperlink ref="I6" r:id="rId10" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386070?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386070?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{0E438D3A-C360-4AD8-A56E-FAB020BABACD}"/>
+    <hyperlink ref="B7" r:id="rId11" location="details/302229/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302229/200335/user/case" xr:uid="{7DFE81BB-51EF-44E3-B7E6-C7F324A53A5C}"/>
+    <hyperlink ref="I7" r:id="rId12" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386079?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386079?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{4C4F55B9-32CF-4B89-AA2D-E3FFB69B1CAB}"/>
+    <hyperlink ref="B8" r:id="rId13" location="details/302252/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302252/200335/user/case" xr:uid="{9587A5F3-BE4C-46A1-9B8E-CA5F701D16FB}"/>
+    <hyperlink ref="I8" r:id="rId14" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386119?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386119?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{FCDBE969-A7A2-484F-86B7-8EF0DBE2C5FB}"/>
+    <hyperlink ref="B9" r:id="rId15" location="details/302284/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302284/200335/user/case" xr:uid="{C229E117-7475-43CB-8173-703428890D1B}"/>
+    <hyperlink ref="I9" r:id="rId16" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386128?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386128?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{3D680F03-90E1-43C4-BE48-252EFE132D0B}"/>
+    <hyperlink ref="B10" r:id="rId17" location="details/302286/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302286/200335/user/case" xr:uid="{3847D039-D2BB-4E3D-B2C4-65A2B3C960F6}"/>
+    <hyperlink ref="I10" r:id="rId18" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386162?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386162?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{746C8A0D-0CAA-47DA-A9E8-FA5FC45B5DC2}"/>
+    <hyperlink ref="B11" r:id="rId19" location="details/302288/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302288/200335/user/case" xr:uid="{8E17DE14-DCAE-4086-97D7-51BFAB163456}"/>
+    <hyperlink ref="I11" r:id="rId20" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386171?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386171?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{9AAF9CFF-E194-47CA-BF4B-C9AADE7A5824}"/>
+    <hyperlink ref="B12" r:id="rId21" location="details/302290/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302290/200335/user/case" xr:uid="{3A71378A-5840-435B-9D70-8CDDA0242A7C}"/>
+    <hyperlink ref="I12" r:id="rId22" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386455?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386455?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{12AA9C2D-1356-454D-958F-B2E98DC8F1F2}"/>
+    <hyperlink ref="B13" r:id="rId23" location="details/302292/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302292/200335/user/case" xr:uid="{D88952DF-9033-4341-9AEA-CF929E2EAEFF}"/>
+    <hyperlink ref="I13" r:id="rId24" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386489?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386489?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{8104941A-D4B8-4C50-B258-7FC583AAAB25}"/>
+    <hyperlink ref="B14" r:id="rId25" location="details/302294/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302294/200335/user/case" xr:uid="{94C75914-4CF8-4D2B-BF23-A7473A5FBC49}"/>
+    <hyperlink ref="I14" r:id="rId26" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386498?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386498?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{22EF64DB-2509-4E7D-996A-FAE322F92C02}"/>
+    <hyperlink ref="B15" r:id="rId27" location="details/302296/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302296/200335/user/case" xr:uid="{4586782A-7EE0-4A82-B21C-FE8C129FBAC2}"/>
+    <hyperlink ref="I15" r:id="rId28" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386532?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386532?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{649FA92F-36FE-4147-B9BE-3AEB0AA1F627}"/>
+    <hyperlink ref="B16" r:id="rId29" location="details/302300/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302300/200335/user/case" xr:uid="{2DA2A6CD-076A-4815-8361-F6C665B88125}"/>
+    <hyperlink ref="I16" r:id="rId30" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386541?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386541?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{CB1C6675-7F44-4811-9F43-EB5B63DA5E23}"/>
+    <hyperlink ref="B17" r:id="rId31" location="details/302302/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302302/200335/user/case" xr:uid="{A8D2545F-8156-4A04-804B-5B31DFDD0049}"/>
+    <hyperlink ref="I17" r:id="rId32" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386550?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386550?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{4B5300E8-1763-4B6B-9081-602F31961CA6}"/>
+    <hyperlink ref="B18" r:id="rId33" location="details/302304/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302304/200335/user/case" xr:uid="{1AA2F40F-6575-4377-9403-04B6F5FA4EBF}"/>
+    <hyperlink ref="I18" r:id="rId34" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386584?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386584?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{E2913A62-4172-4A43-B3CD-A01F03B75CB2}"/>
+    <hyperlink ref="B19" r:id="rId35" location="details/302307/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302307/200335/user/case" xr:uid="{A3BEC688-AEA4-4B70-8435-51AAE1CE2F65}"/>
+    <hyperlink ref="I19" r:id="rId36" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386593?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386593?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{5D5220EF-FA3D-456A-9AA8-B552A406582A}"/>
+    <hyperlink ref="B20" r:id="rId37" location="details/302309/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302309/200335/user/case" xr:uid="{5F41CD9B-6C59-4CED-8A00-91E03BC1DEF7}"/>
+    <hyperlink ref="I20" r:id="rId38" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386602?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386602?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{1FE6A32E-E6F6-4B95-B75B-FB1CDA6E78A3}"/>
+    <hyperlink ref="B21" r:id="rId39" location="details/302315/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302315/200335/user/case" xr:uid="{7FE2A879-C321-4ACE-ADA8-CBE721B8C73A}"/>
+    <hyperlink ref="I21" r:id="rId40" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386636?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10386636?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{B256B0C0-64F3-45A4-889B-B2052D249B16}"/>
+    <hyperlink ref="B22" r:id="rId41" location="details/302330/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302330/200335/user/case" xr:uid="{2462C14B-A4C4-48FD-9565-596C3D15A02A}"/>
+    <hyperlink ref="I22" r:id="rId42" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506804?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506804?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{B5FE321C-453B-46AB-8652-7A5C32B1D44D}"/>
+    <hyperlink ref="B23" r:id="rId43" location="details/302159/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302159/200335/user/case" xr:uid="{B4ED106E-2425-461B-8629-8B3EAB6170D7}"/>
+    <hyperlink ref="I23" r:id="rId44" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506845?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506845?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{A8C645E4-1C74-46B2-BB43-1DFC064DFA24}"/>
+    <hyperlink ref="B24" r:id="rId45" location="details/302204/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302204/200335/user/case" xr:uid="{039AE052-5247-4EC9-AD69-5D37FB43431B}"/>
+    <hyperlink ref="I24" r:id="rId46" location="task/FixedTermAppointmentExpiry2.0HRReviewAndUpdate/bonita/portal/form/taskInstance/10506848?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0HRReviewAndUpdate/bonita/portal/form/taskInstance/10506848?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{98D81527-9779-40E8-824B-C45B1C378653}"/>
+    <hyperlink ref="B25" r:id="rId47" location="details/302432/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302432/200335/user/case" xr:uid="{906A6A72-F967-4D59-86D3-95616758620A}"/>
+    <hyperlink ref="I25" r:id="rId48" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506859?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506859?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{8BEE7F52-56DB-4301-8BEF-FEF083923F8E}"/>
+    <hyperlink ref="B26" r:id="rId49" location="details/302231/200335/user/case" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - details/302231/200335/user/case" xr:uid="{8D053815-14AA-4C1D-922D-0582790A2827}"/>
+    <hyperlink ref="I26" r:id="rId50" location="task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506900?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" display="https://task-test.bpd.aws.uq.edu.au/bonita/portal/resource/app/worklist/worklist/content/ - task/FixedTermAppointmentExpiry2.0ProcessRenewal/bonita/portal/form/taskInstance/10506900?senderUrl=https://task-test.bpd.aws.uq.edu.au/bonita/apps/worklist/worklist/?taskAction=updated" xr:uid="{6A5417EE-C14D-41EE-AC7B-C75056588A67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>